--- a/datasets/prets_bibliotheque_tableur.xlsx
+++ b/datasets/prets_bibliotheque_tableur.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabienPageot\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabienPageot\cy_bdd_sql\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765686F3-3A33-4A2C-936D-334E551064E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F4E1C-6F84-4657-877F-45EC9FBAB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
